--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CV Analysis" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Empty Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -476,14 +476,14 @@
         <v>0.463</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>73.07314992254605</v>
+        <v>73.07314992254854</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-69.28625819470719</v>
+        <v>-69.28625819471034</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.463</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>73.32784023961112</v>
+        <v>73.32784023961358</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-69.75852399925098</v>
+        <v>-69.75852399925414</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.463</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>73.54670834640807</v>
+        <v>73.54670834641051</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-70.13383417593826</v>
+        <v>-70.13383417594143</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.463</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>73.75277961733816</v>
+        <v>73.75277961734061</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-70.47323390243565</v>
+        <v>-70.47323390243881</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.463</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>73.93459945843011</v>
+        <v>73.93459945843261</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-70.74851125798165</v>
+        <v>-70.74851125798477</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.463</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>74.07101799140354</v>
+        <v>74.07101799140602</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-70.98755808075501</v>
+        <v>-70.98755808075809</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.463</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>74.20782834641432</v>
+        <v>74.20782834641682</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-71.21517022274841</v>
+        <v>-71.21517022275157</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.463</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>74.32785493308057</v>
+        <v>74.32785493308305</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-71.40451143449107</v>
+        <v>-71.40451143449421</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.463</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>74.4402000777352</v>
+        <v>74.44020007773769</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-71.56342011201335</v>
+        <v>-71.56342011201646</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.463</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>74.5468671892897</v>
+        <v>74.5468671892922</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-71.71592533360048</v>
+        <v>-71.71592533360361</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -666,14 +666,14 @@
         <v>0.464</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>74.64038850987927</v>
+        <v>74.6403885098818</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-71.85338029582176</v>
+        <v>-71.85338029582488</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.464</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>74.72842131484444</v>
+        <v>74.72842131484697</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-71.96647475392915</v>
+        <v>-71.96647475393229</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.464</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>74.81037299837263</v>
+        <v>74.81037299837516</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-72.07640040815272</v>
+        <v>-72.07640040815585</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.464</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>74.87524559941508</v>
+        <v>74.87524559941761</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-72.18223571997521</v>
+        <v>-72.18223571997829</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.464</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>74.94009308585557</v>
+        <v>74.94009308585807</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-72.25224902505258</v>
+        <v>-72.25224902505565</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.464</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>74.99188575754124</v>
+        <v>74.99125660733114</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-72.31482901112918</v>
+        <v>-72.31482901113223</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.464</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>75.03093827395486</v>
+        <v>75.03078782292292</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-72.38941689402048</v>
+        <v>-72.38941689402354</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.464</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>75.07605271007357</v>
+        <v>75.07551880253</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-72.44808069871941</v>
+        <v>-72.44808069872181</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.464</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>75.12272609956551</v>
+        <v>75.12269162152396</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-72.51308506087776</v>
+        <v>-72.51308506088016</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.464</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>75.18624739742538</v>
+        <v>75.18289819148544</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-72.58548406572304</v>
+        <v>-72.58548406572548</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.464</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>75.22907213862204</v>
+        <v>75.22555996102876</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-72.63283131168885</v>
+        <v>-72.63283131169129</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.464</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>75.27326499488241</v>
+        <v>75.27069768785188</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-72.68175761721298</v>
+        <v>-72.68175761721544</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.464</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>75.3081884461196</v>
+        <v>75.30521258372289</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-72.72408191117147</v>
+        <v>-72.7240819111739</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.464</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>75.34565004642575</v>
+        <v>75.34261583852287</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-72.78872040987405</v>
+        <v>-72.78872040987649</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.464</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>75.38740004498568</v>
+        <v>75.38417803689133</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-72.83249127132012</v>
+        <v>-72.83249127132257</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.464</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>75.42789079318794</v>
+        <v>75.42452681828904</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-72.87213987839023</v>
+        <v>-72.87213987839267</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -970,14 +970,14 @@
         <v>0.465</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>75.47443994033159</v>
+        <v>75.47073254866754</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-72.88379948761207</v>
+        <v>-72.88379948761448</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.465</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>75.50828153506916</v>
+        <v>75.50456571284855</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-72.91081544909763</v>
+        <v>-72.91081544910006</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.465</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>75.52634965239403</v>
+        <v>75.52226882648785</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-72.93398820724468</v>
+        <v>-72.93398820724715</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1027,14 +1027,14 @@
         <v>0.465</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>75.53509929025239</v>
+        <v>75.53114679125363</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-72.95854124414551</v>
+        <v>-72.95854124414797</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.465</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>75.54430399706398</v>
+        <v>75.54031583740405</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-72.96820884183592</v>
+        <v>-72.96820884183836</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.465</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>75.56642092949059</v>
+        <v>75.56254892629501</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-72.96721472264937</v>
+        <v>-72.96721472265185</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.465</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>75.57034026783752</v>
+        <v>75.56635152789258</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
         <v>0.281</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-72.97606245116252</v>
+        <v>-72.97606245116498</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.465</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>75.57535777705429</v>
+        <v>75.57131343295704</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
         <v>0.281</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-72.97695110904158</v>
+        <v>-72.97695110904405</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.465</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>75.56483560534464</v>
+        <v>75.56072468811207</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-72.99412419709738</v>
+        <v>-72.99412419709981</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.465</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>75.57162621914159</v>
+        <v>75.56748449332608</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-72.99988415586927</v>
+        <v>-72.99988415587175</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.464</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>75.59018357814396</v>
+        <v>75.58605802613585</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-72.99000781679906</v>
+        <v>-72.99000781680154</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.464</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>75.60418023079303</v>
+        <v>75.59996121292755</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-72.98658846302961</v>
+        <v>-72.98658846303206</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.464</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>75.63592670826024</v>
+        <v>75.63183312191251</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-72.97188349541662</v>
+        <v>-72.97188349541908</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.464</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>75.64303994182278</v>
+        <v>75.63886992671206</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-72.93680521606125</v>
+        <v>-72.93680521606369</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.464</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>75.62404772800897</v>
+        <v>75.61974775884656</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-72.92080327373024</v>
+        <v>-72.92080327373267</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.464</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>75.62066509599251</v>
+        <v>75.61643727221464</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-72.92086771970804</v>
+        <v>-72.92086771971049</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.464</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>75.61018027361959</v>
+        <v>75.60596669728265</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-72.89553931430699</v>
+        <v>-72.89553931430946</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.464</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>75.60074788719562</v>
+        <v>75.59656544978951</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-72.86996742206244</v>
+        <v>-72.8699674220649</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.464</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>75.58977352845923</v>
+        <v>75.58552162724709</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-72.8323511150117</v>
+        <v>-72.83235111501415</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.464</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>75.5615213427217</v>
+        <v>75.55724281038243</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-72.78138923844054</v>
+        <v>-72.78138923844298</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.464</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>75.55953357916682</v>
+        <v>75.55529616101519</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-72.7848043524737</v>
+        <v>-72.78480435247617</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.464</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>75.58463646632136</v>
+        <v>75.58018039759637</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-72.74642114475677</v>
+        <v>-72.74642114475922</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>

--- a/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-1.xlsx
+++ b/Data/2022-03-23 MQ HCF/CV Analysis/Peak Information/CV-Carbon-NiHCF-1.xlsx
@@ -447,23 +447,23 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Potential (V)</t>
+          <t>Oxidation Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Oxidation Peak 0 Current (uAmps)</t>
+          <t>Oxidation Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Potential (V)</t>
+          <t>Reduction Peak 1 Potential (V)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Reduction Peak 0 Current (uAmps)</t>
+          <t>Reduction Peak 1 Current (uAmps)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr"/>
@@ -476,14 +476,14 @@
         <v>0.463</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>73.07314992254854</v>
+        <v>73.04838152991833</v>
       </c>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="2" t="n">
         <v>0.284</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>-69.28625819471034</v>
+        <v>69.32744985767206</v>
       </c>
       <c r="G2" s="2" t="inlineStr"/>
     </row>
@@ -495,14 +495,14 @@
         <v>0.463</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>73.32784023961358</v>
+        <v>73.27671862670324</v>
       </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>0.283</v>
+        <v>0.284</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>-69.75852399925414</v>
+        <v>69.62821484170892</v>
       </c>
       <c r="G3" s="2" t="inlineStr"/>
     </row>
@@ -514,14 +514,14 @@
         <v>0.463</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>73.54670834641051</v>
+        <v>73.50843001438516</v>
       </c>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>-70.13383417594143</v>
+        <v>69.83139971733533</v>
       </c>
       <c r="G4" s="2" t="inlineStr"/>
     </row>
@@ -533,14 +533,14 @@
         <v>0.463</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>73.75277961734061</v>
+        <v>73.68446778594949</v>
       </c>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>-70.47323390243881</v>
+        <v>70.04400469603229</v>
       </c>
       <c r="G5" s="2" t="inlineStr"/>
     </row>
@@ -552,14 +552,14 @@
         <v>0.463</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>73.93459945843261</v>
+        <v>73.83290584986287</v>
       </c>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>-70.74851125798477</v>
+        <v>70.19118476242397</v>
       </c>
       <c r="G6" s="2" t="inlineStr"/>
     </row>
@@ -571,14 +571,14 @@
         <v>0.463</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>74.07101799140602</v>
+        <v>73.98904121306502</v>
       </c>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>-70.98755808075809</v>
+        <v>70.37428492427433</v>
       </c>
       <c r="G7" s="2" t="inlineStr"/>
     </row>
@@ -590,14 +590,14 @@
         <v>0.463</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>74.20782834641682</v>
+        <v>74.11589251287235</v>
       </c>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>-71.21517022275157</v>
+        <v>70.53469675775806</v>
       </c>
       <c r="G8" s="2" t="inlineStr"/>
     </row>
@@ -609,14 +609,14 @@
         <v>0.463</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>74.32785493308305</v>
+        <v>74.26778910963002</v>
       </c>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>-71.40451143449421</v>
+        <v>70.73566572264029</v>
       </c>
       <c r="G9" s="2" t="inlineStr"/>
     </row>
@@ -628,14 +628,14 @@
         <v>0.463</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>74.44020007773769</v>
+        <v>74.34447904063317</v>
       </c>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>-71.56342011201646</v>
+        <v>70.77641758621695</v>
       </c>
       <c r="G10" s="2" t="inlineStr"/>
     </row>
@@ -647,14 +647,14 @@
         <v>0.463</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>74.5468671892922</v>
+        <v>74.46389871094115</v>
       </c>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>-71.71592533360361</v>
+        <v>71.08818031386757</v>
       </c>
       <c r="G11" s="2" t="inlineStr"/>
     </row>
@@ -663,17 +663,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.464</v>
+        <v>0.463</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>74.6403885098818</v>
+        <v>74.54536715709528</v>
       </c>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>-71.85338029582488</v>
+        <v>71.24400084746247</v>
       </c>
       <c r="G12" s="2" t="inlineStr"/>
     </row>
@@ -685,14 +685,14 @@
         <v>0.464</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>74.72842131484697</v>
+        <v>74.64236309358904</v>
       </c>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="2" t="n">
-        <v>0.282</v>
+        <v>0.283</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>-71.96647475393229</v>
+        <v>71.41140511691113</v>
       </c>
       <c r="G13" s="2" t="inlineStr"/>
     </row>
@@ -704,14 +704,14 @@
         <v>0.464</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>74.81037299837516</v>
+        <v>74.75627413602305</v>
       </c>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>-72.07640040815585</v>
+        <v>71.55908280186976</v>
       </c>
       <c r="G14" s="2" t="inlineStr"/>
     </row>
@@ -723,14 +723,14 @@
         <v>0.464</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>74.87524559941761</v>
+        <v>74.7946083767861</v>
       </c>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>-72.18223571997829</v>
+        <v>71.69637130090499</v>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
     </row>
@@ -742,14 +742,14 @@
         <v>0.464</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>74.94009308585807</v>
+        <v>74.91708427737794</v>
       </c>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>-72.25224902505565</v>
+        <v>71.83890638603135</v>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
     </row>
@@ -761,14 +761,14 @@
         <v>0.464</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>74.99125660733114</v>
+        <v>74.94035555477248</v>
       </c>
       <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>-72.31482901113223</v>
+        <v>71.94922083844639</v>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
     </row>
@@ -780,14 +780,14 @@
         <v>0.464</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>75.03078782292292</v>
+        <v>74.9801657867504</v>
       </c>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>-72.38941689402354</v>
+        <v>72.01056399705134</v>
       </c>
       <c r="G18" s="2" t="inlineStr"/>
     </row>
@@ -799,14 +799,14 @@
         <v>0.464</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>75.07551880253</v>
+        <v>75.0104270901215</v>
       </c>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>-72.44808069872181</v>
+        <v>72.5782815889648</v>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
     </row>
@@ -818,14 +818,14 @@
         <v>0.464</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>75.12269162152396</v>
+        <v>75.11083291257252</v>
       </c>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>-72.51308506088016</v>
+        <v>72.59080959218458</v>
       </c>
       <c r="G20" s="2" t="inlineStr"/>
     </row>
@@ -837,14 +837,14 @@
         <v>0.464</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>75.18289819148544</v>
+        <v>75.13088226559375</v>
       </c>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>-72.58548406572548</v>
+        <v>72.64968869974288</v>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
     </row>
@@ -856,14 +856,14 @@
         <v>0.464</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>75.22555996102876</v>
+        <v>75.1524565240985</v>
       </c>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>-72.63283131169129</v>
+        <v>72.67053934562701</v>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
     </row>
@@ -875,14 +875,14 @@
         <v>0.464</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>75.27069768785188</v>
+        <v>75.20710726981812</v>
       </c>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>-72.68175761721544</v>
+        <v>72.71208574741073</v>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
     </row>
@@ -894,14 +894,14 @@
         <v>0.464</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>75.30521258372289</v>
+        <v>75.24140733535801</v>
       </c>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>-72.7240819111739</v>
+        <v>72.7389447112633</v>
       </c>
       <c r="G24" s="2" t="inlineStr"/>
     </row>
@@ -913,14 +913,14 @@
         <v>0.464</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>75.34261583852287</v>
+        <v>75.25369074185961</v>
       </c>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>-72.78872040987649</v>
+        <v>72.84298847203605</v>
       </c>
       <c r="G25" s="2" t="inlineStr"/>
     </row>
@@ -932,14 +932,14 @@
         <v>0.464</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>75.38417803689133</v>
+        <v>75.32495978796429</v>
       </c>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>-72.83249127132257</v>
+        <v>72.89310790779925</v>
       </c>
       <c r="G26" s="2" t="inlineStr"/>
     </row>
@@ -951,14 +951,14 @@
         <v>0.464</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>75.42452681828904</v>
+        <v>75.35506800452393</v>
       </c>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>-72.87213987839267</v>
+        <v>72.86925065979077</v>
       </c>
       <c r="G27" s="2" t="inlineStr"/>
     </row>
@@ -967,17 +967,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>75.47073254866754</v>
+        <v>75.40227661675976</v>
       </c>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>-72.88379948761448</v>
+        <v>72.88013148807389</v>
       </c>
       <c r="G28" s="2" t="inlineStr"/>
     </row>
@@ -989,14 +989,14 @@
         <v>0.465</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>75.50456571284855</v>
+        <v>75.44601708987035</v>
       </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>-72.91081544910006</v>
+        <v>72.91433798653458</v>
       </c>
       <c r="G29" s="2" t="inlineStr"/>
     </row>
@@ -1008,14 +1008,14 @@
         <v>0.465</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>75.52226882648785</v>
+        <v>75.45876552244702</v>
       </c>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>-72.93398820724715</v>
+        <v>72.88971837953326</v>
       </c>
       <c r="G30" s="2" t="inlineStr"/>
     </row>
@@ -1024,17 +1024,17 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>75.53114679125363</v>
+        <v>75.47746617317873</v>
       </c>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>-72.95854124414797</v>
+        <v>72.95547009299959</v>
       </c>
       <c r="G31" s="2" t="inlineStr"/>
     </row>
@@ -1046,14 +1046,14 @@
         <v>0.465</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>75.54031583740405</v>
+        <v>75.47535913894636</v>
       </c>
       <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>-72.96820884183836</v>
+        <v>72.93332049697086</v>
       </c>
       <c r="G32" s="2" t="inlineStr"/>
     </row>
@@ -1065,14 +1065,14 @@
         <v>0.465</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>75.56254892629501</v>
+        <v>75.4727775538462</v>
       </c>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>-72.96721472265185</v>
+        <v>72.91651227153592</v>
       </c>
       <c r="G33" s="2" t="inlineStr"/>
     </row>
@@ -1084,14 +1084,14 @@
         <v>0.465</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>75.56635152789258</v>
+        <v>75.49278289606544</v>
       </c>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="2" t="n">
-        <v>0.281</v>
+        <v>0.282</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>-72.97606245116498</v>
+        <v>72.82930286410019</v>
       </c>
       <c r="G34" s="2" t="inlineStr"/>
     </row>
@@ -1103,14 +1103,14 @@
         <v>0.465</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>75.57131343295704</v>
+        <v>75.5329169830089</v>
       </c>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="2" t="n">
-        <v>0.281</v>
+        <v>0.282</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>-72.97695110904405</v>
+        <v>72.78516984608689</v>
       </c>
       <c r="G35" s="2" t="inlineStr"/>
     </row>
@@ -1122,14 +1122,14 @@
         <v>0.465</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>75.56072468811207</v>
+        <v>75.5149950121709</v>
       </c>
       <c r="D36" s="2" t="inlineStr"/>
       <c r="E36" s="2" t="n">
         <v>0.282</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>-72.99412419709981</v>
+        <v>72.77246804182941</v>
       </c>
       <c r="G36" s="2" t="inlineStr"/>
     </row>
@@ -1141,14 +1141,14 @@
         <v>0.465</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>75.56748449332608</v>
+        <v>75.51525470647879</v>
       </c>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>-72.99988415587175</v>
+        <v>72.76347864881458</v>
       </c>
       <c r="G37" s="2" t="inlineStr"/>
     </row>
@@ -1160,14 +1160,14 @@
         <v>0.464</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>75.58605802613585</v>
+        <v>75.50852589973039</v>
       </c>
       <c r="D38" s="2" t="inlineStr"/>
       <c r="E38" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>-72.99000781680154</v>
+        <v>72.73492035476926</v>
       </c>
       <c r="G38" s="2" t="inlineStr"/>
     </row>
@@ -1179,14 +1179,14 @@
         <v>0.464</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>75.59996121292755</v>
+        <v>75.52604510534208</v>
       </c>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>-72.98658846303206</v>
+        <v>72.70147181070102</v>
       </c>
       <c r="G39" s="2" t="inlineStr"/>
     </row>
@@ -1198,14 +1198,14 @@
         <v>0.464</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>75.63183312191251</v>
+        <v>75.55942427041305</v>
       </c>
       <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>-72.97188349541908</v>
+        <v>72.69987084275961</v>
       </c>
       <c r="G40" s="2" t="inlineStr"/>
     </row>
@@ -1217,14 +1217,14 @@
         <v>0.464</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>75.63886992671206</v>
+        <v>75.57977715120821</v>
       </c>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>-72.93680521606369</v>
+        <v>72.6840703576549</v>
       </c>
       <c r="G41" s="2" t="inlineStr"/>
     </row>
@@ -1236,14 +1236,14 @@
         <v>0.464</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>75.61974775884656</v>
+        <v>75.5302319100677</v>
       </c>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>-72.92080327373267</v>
+        <v>72.65962769590462</v>
       </c>
       <c r="G42" s="2" t="inlineStr"/>
     </row>
@@ -1255,14 +1255,14 @@
         <v>0.464</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>75.61643727221464</v>
+        <v>75.57247370595323</v>
       </c>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>-72.92086771971049</v>
+        <v>72.69772703728133</v>
       </c>
       <c r="G43" s="2" t="inlineStr"/>
     </row>
@@ -1274,14 +1274,14 @@
         <v>0.464</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>75.60596669728265</v>
+        <v>75.55889281010587</v>
       </c>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>-72.89553931430946</v>
+        <v>72.70001701401833</v>
       </c>
       <c r="G44" s="2" t="inlineStr"/>
     </row>
@@ -1293,14 +1293,14 @@
         <v>0.464</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>75.59656544978951</v>
+        <v>75.53160544393616</v>
       </c>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>-72.8699674220649</v>
+        <v>72.67019454960331</v>
       </c>
       <c r="G45" s="2" t="inlineStr"/>
     </row>
@@ -1312,14 +1312,14 @@
         <v>0.464</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>75.58552162724709</v>
+        <v>75.52209422869848</v>
       </c>
       <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>-72.83235111501415</v>
+        <v>72.63446074149115</v>
       </c>
       <c r="G46" s="2" t="inlineStr"/>
     </row>
@@ -1331,14 +1331,14 @@
         <v>0.464</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>75.55724281038243</v>
+        <v>75.51191917942761</v>
       </c>
       <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>-72.78138923844298</v>
+        <v>72.63572367841918</v>
       </c>
       <c r="G47" s="2" t="inlineStr"/>
     </row>
@@ -1350,14 +1350,14 @@
         <v>0.464</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>75.55529616101519</v>
+        <v>75.50209813232831</v>
       </c>
       <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>-72.78480435247617</v>
+        <v>72.58807425206058</v>
       </c>
       <c r="G48" s="2" t="inlineStr"/>
     </row>
@@ -1369,14 +1369,14 @@
         <v>0.464</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>75.58018039759637</v>
+        <v>75.53410919972664</v>
       </c>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="2" t="n">
         <v>0.283</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>-72.74642114475922</v>
+        <v>72.59757313924332</v>
       </c>
       <c r="G49" s="2" t="inlineStr"/>
     </row>
